--- a/TEST/SOBOL_BIG/9F_48_WELL_COMPLETE_FILLING_COOPER/tube_stock/0_tube_stock.xlsx
+++ b/TEST/SOBOL_BIG/9F_48_WELL_COMPLETE_FILLING_COOPER/tube_stock/0_tube_stock.xlsx
@@ -461,72 +461,72 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Vol_MgSO4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Water_MgSO4</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>Vol_KH2PO4</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Water_KH2PO4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Vol_Na2HPO4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Water_Na2HPO4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Vol_Na2EDTA</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Water_Na2EDTA</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vol_CaCl2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Water_CaCl2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Vol_FeSO4</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Water_FeSO4</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Vol_MnSO4</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Water_MnSO4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_Na2EDTA</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Water_Na2EDTA</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_MgSO4</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Water_MgSO4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Vol_CaCl2</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Water_CaCl2</t>
         </is>
       </c>
     </row>
@@ -537,58 +537,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1668.4</v>
+        <v>251.1</v>
       </c>
       <c r="C2" t="n">
-        <v>3331.6</v>
+        <v>1748.9</v>
       </c>
       <c r="D2" t="n">
-        <v>677.4</v>
+        <v>1678.3</v>
       </c>
       <c r="E2" t="n">
-        <v>4322.6</v>
+        <v>321.7</v>
       </c>
       <c r="F2" t="n">
-        <v>707.2</v>
+        <v>1853.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4292.8</v>
+        <v>146.4</v>
       </c>
       <c r="H2" t="n">
-        <v>802.2</v>
+        <v>1349.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4197.8</v>
+        <v>650.1</v>
       </c>
       <c r="J2" t="n">
-        <v>4828.8</v>
+        <v>1218.7</v>
       </c>
       <c r="K2" t="n">
-        <v>171.2</v>
+        <v>781.3</v>
       </c>
       <c r="L2" t="n">
-        <v>4296.9</v>
+        <v>1000.1</v>
       </c>
       <c r="M2" t="n">
-        <v>703.1</v>
+        <v>999.9</v>
       </c>
       <c r="N2" t="n">
-        <v>100</v>
+        <v>628.3</v>
       </c>
       <c r="O2" t="n">
-        <v>4900</v>
+        <v>1371.7</v>
       </c>
       <c r="P2" t="n">
-        <v>2000</v>
+        <v>54.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>3000</v>
+        <v>1945.1</v>
       </c>
       <c r="R2" t="n">
-        <v>175</v>
+        <v>1065</v>
       </c>
       <c r="S2" t="n">
-        <v>4825</v>
+        <v>935</v>
       </c>
     </row>
     <row r="3">
@@ -598,58 +598,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2847.3</v>
+        <v>924.9</v>
       </c>
       <c r="C3" t="n">
-        <v>2152.7</v>
+        <v>1075.1</v>
       </c>
       <c r="D3" t="n">
-        <v>309.5</v>
+        <v>1336.8</v>
       </c>
       <c r="E3" t="n">
-        <v>4690.5</v>
+        <v>663.2</v>
       </c>
       <c r="F3" t="n">
-        <v>2569.3</v>
+        <v>886.2</v>
       </c>
       <c r="G3" t="n">
-        <v>2430.7</v>
+        <v>1113.8</v>
       </c>
       <c r="H3" t="n">
-        <v>4146.4</v>
+        <v>236.5</v>
       </c>
       <c r="I3" t="n">
-        <v>853.6</v>
+        <v>1763.5</v>
       </c>
       <c r="J3" t="n">
-        <v>813.6</v>
+        <v>1743.2</v>
       </c>
       <c r="K3" t="n">
-        <v>4186.4</v>
+        <v>256.8</v>
       </c>
       <c r="L3" t="n">
-        <v>511.6</v>
+        <v>1373.8</v>
       </c>
       <c r="M3" t="n">
-        <v>4488.4</v>
+        <v>626.2</v>
       </c>
       <c r="N3" t="n">
-        <v>100</v>
+        <v>109.7</v>
       </c>
       <c r="O3" t="n">
-        <v>4900</v>
+        <v>1890.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2000</v>
+        <v>1119.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>3000</v>
+        <v>880.8</v>
       </c>
       <c r="R3" t="n">
-        <v>175</v>
+        <v>159.6</v>
       </c>
       <c r="S3" t="n">
-        <v>4825</v>
+        <v>1840.4</v>
       </c>
     </row>
     <row r="4">
@@ -659,58 +659,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2051.8</v>
+        <v>1654.4</v>
       </c>
       <c r="C4" t="n">
-        <v>2948.2</v>
+        <v>345.6</v>
       </c>
       <c r="D4" t="n">
-        <v>3976.6</v>
+        <v>433.4</v>
       </c>
       <c r="E4" t="n">
-        <v>1023.4</v>
+        <v>1566.6</v>
       </c>
       <c r="F4" t="n">
-        <v>2004.3</v>
+        <v>1329.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2995.7</v>
+        <v>670.3</v>
       </c>
       <c r="H4" t="n">
-        <v>233.8</v>
+        <v>34.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4766.2</v>
+        <v>1965.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4027.8</v>
+        <v>1105.1</v>
       </c>
       <c r="K4" t="n">
-        <v>972.2</v>
+        <v>894.9</v>
       </c>
       <c r="L4" t="n">
-        <v>3251.6</v>
+        <v>346.9</v>
       </c>
       <c r="M4" t="n">
-        <v>1748.4</v>
+        <v>1653.1</v>
       </c>
       <c r="N4" t="n">
-        <v>100</v>
+        <v>1278.3</v>
       </c>
       <c r="O4" t="n">
-        <v>4900</v>
+        <v>721.7</v>
       </c>
       <c r="P4" t="n">
-        <v>2000</v>
+        <v>625.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>3000</v>
+        <v>1374.6</v>
       </c>
       <c r="R4" t="n">
-        <v>175</v>
+        <v>1706</v>
       </c>
       <c r="S4" t="n">
-        <v>4825</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
@@ -720,58 +720,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3621.9</v>
+        <v>1881.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1378.1</v>
+        <v>118.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1946.7</v>
+        <v>1490.7</v>
       </c>
       <c r="E5" t="n">
-        <v>3053.3</v>
+        <v>509.3</v>
       </c>
       <c r="F5" t="n">
-        <v>1141.4</v>
+        <v>1995.5</v>
       </c>
       <c r="G5" t="n">
-        <v>3858.6</v>
+        <v>4.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3377.7</v>
+        <v>399.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1622.3</v>
+        <v>1600.5</v>
       </c>
       <c r="J5" t="n">
-        <v>4158.4</v>
+        <v>1291.6</v>
       </c>
       <c r="K5" t="n">
-        <v>841.6</v>
+        <v>708.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1679</v>
+        <v>748</v>
       </c>
       <c r="M5" t="n">
-        <v>3321</v>
+        <v>1252</v>
       </c>
       <c r="N5" t="n">
-        <v>100</v>
+        <v>470.9</v>
       </c>
       <c r="O5" t="n">
-        <v>4900</v>
+        <v>1529.1</v>
       </c>
       <c r="P5" t="n">
-        <v>2000</v>
+        <v>1315</v>
       </c>
       <c r="Q5" t="n">
-        <v>3000</v>
+        <v>685</v>
       </c>
       <c r="R5" t="n">
-        <v>175</v>
+        <v>373.5</v>
       </c>
       <c r="S5" t="n">
-        <v>4825</v>
+        <v>1626.5</v>
       </c>
     </row>
     <row r="6">
@@ -781,58 +781,58 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2732.5</v>
+        <v>1079.9</v>
       </c>
       <c r="C6" t="n">
-        <v>2267.5</v>
+        <v>920.1</v>
       </c>
       <c r="D6" t="n">
-        <v>1252</v>
+        <v>1802.4</v>
       </c>
       <c r="E6" t="n">
-        <v>3748</v>
+        <v>197.6</v>
       </c>
       <c r="F6" t="n">
-        <v>4108.1</v>
+        <v>1518.8</v>
       </c>
       <c r="G6" t="n">
-        <v>891.9</v>
+        <v>481.2</v>
       </c>
       <c r="H6" t="n">
-        <v>641</v>
+        <v>127.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4359</v>
+        <v>1872.9</v>
       </c>
       <c r="J6" t="n">
-        <v>1593.7</v>
+        <v>330.1</v>
       </c>
       <c r="K6" t="n">
-        <v>3406.3</v>
+        <v>1669.9</v>
       </c>
       <c r="L6" t="n">
-        <v>4038.1</v>
+        <v>1391.9</v>
       </c>
       <c r="M6" t="n">
-        <v>961.9</v>
+        <v>608.1</v>
       </c>
       <c r="N6" t="n">
-        <v>100</v>
+        <v>1190</v>
       </c>
       <c r="O6" t="n">
-        <v>4900</v>
+        <v>810</v>
       </c>
       <c r="P6" t="n">
-        <v>2000</v>
+        <v>209.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>3000</v>
+        <v>1790.1</v>
       </c>
       <c r="R6" t="n">
-        <v>175</v>
+        <v>849.6</v>
       </c>
       <c r="S6" t="n">
-        <v>4825</v>
+        <v>1150.4</v>
       </c>
     </row>
     <row r="7">
@@ -842,58 +842,58 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2030.8</v>
+        <v>1722.5</v>
       </c>
       <c r="C7" t="n">
-        <v>2969.2</v>
+        <v>277.5</v>
       </c>
       <c r="D7" t="n">
-        <v>21.5</v>
+        <v>1214.7</v>
       </c>
       <c r="E7" t="n">
-        <v>4978.5</v>
+        <v>785.3</v>
       </c>
       <c r="F7" t="n">
-        <v>3985.7</v>
+        <v>736.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1014.3</v>
+        <v>1263.4</v>
       </c>
       <c r="H7" t="n">
-        <v>3226.3</v>
+        <v>1271.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1773.7</v>
+        <v>728.1</v>
       </c>
       <c r="J7" t="n">
-        <v>2232.5</v>
+        <v>866.2</v>
       </c>
       <c r="K7" t="n">
-        <v>2767.5</v>
+        <v>1133.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1392.2</v>
+        <v>1234.3</v>
       </c>
       <c r="M7" t="n">
-        <v>3607.8</v>
+        <v>765.7</v>
       </c>
       <c r="N7" t="n">
-        <v>100</v>
+        <v>1548.5</v>
       </c>
       <c r="O7" t="n">
-        <v>4900</v>
+        <v>451.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2000</v>
+        <v>1145.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>3000</v>
+        <v>854.7</v>
       </c>
       <c r="R7" t="n">
-        <v>175</v>
+        <v>1882.8</v>
       </c>
       <c r="S7" t="n">
-        <v>4825</v>
+        <v>117.2</v>
       </c>
     </row>
     <row r="8">
@@ -903,58 +903,58 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1827.3</v>
+        <v>1584.1</v>
       </c>
       <c r="C8" t="n">
-        <v>3172.7</v>
+        <v>415.9</v>
       </c>
       <c r="D8" t="n">
-        <v>1856</v>
+        <v>636</v>
       </c>
       <c r="E8" t="n">
-        <v>3144</v>
+        <v>1364</v>
       </c>
       <c r="F8" t="n">
-        <v>4684.8</v>
+        <v>1789</v>
       </c>
       <c r="G8" t="n">
-        <v>315.2</v>
+        <v>211</v>
       </c>
       <c r="H8" t="n">
-        <v>4893.1</v>
+        <v>1505.8</v>
       </c>
       <c r="I8" t="n">
-        <v>106.9</v>
+        <v>494.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3936.6</v>
+        <v>1851.3</v>
       </c>
       <c r="K8" t="n">
-        <v>1063.4</v>
+        <v>148.7</v>
       </c>
       <c r="L8" t="n">
-        <v>313.9</v>
+        <v>1250.2</v>
       </c>
       <c r="M8" t="n">
-        <v>4686.1</v>
+        <v>749.8</v>
       </c>
       <c r="N8" t="n">
-        <v>100</v>
+        <v>193.5</v>
       </c>
       <c r="O8" t="n">
-        <v>4900</v>
+        <v>1806.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2000</v>
+        <v>1877.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>3000</v>
+        <v>122.3</v>
       </c>
       <c r="R8" t="n">
-        <v>175</v>
+        <v>1052.8</v>
       </c>
       <c r="S8" t="n">
-        <v>4825</v>
+        <v>947.2</v>
       </c>
     </row>
     <row r="9">
@@ -964,58 +964,58 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1041.7</v>
+        <v>416.7</v>
       </c>
       <c r="E9" t="n">
-        <v>3958.3</v>
+        <v>1583.3</v>
       </c>
       <c r="F9" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="G9" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H9" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K9" t="n">
-        <v>4900</v>
+        <v>400</v>
       </c>
       <c r="L9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>4975</v>
+        <v>1960</v>
       </c>
       <c r="N9" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O9" t="n">
-        <v>4900</v>
+        <v>1930</v>
       </c>
       <c r="P9" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="Q9" t="n">
-        <v>3000</v>
+        <v>1960</v>
       </c>
       <c r="R9" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>4825</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="10">
@@ -1025,58 +1025,58 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1041.7</v>
+        <v>416.7</v>
       </c>
       <c r="E10" t="n">
-        <v>3958.3</v>
+        <v>1583.3</v>
       </c>
       <c r="F10" t="n">
-        <v>3000</v>
+        <v>800</v>
       </c>
       <c r="G10" t="n">
-        <v>2000</v>
+        <v>1200</v>
       </c>
       <c r="H10" t="n">
-        <v>4000</v>
+        <v>1200</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>1600</v>
       </c>
       <c r="K10" t="n">
-        <v>4900</v>
+        <v>400</v>
       </c>
       <c r="L10" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M10" t="n">
-        <v>4975</v>
+        <v>1960</v>
       </c>
       <c r="N10" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O10" t="n">
-        <v>4900</v>
+        <v>1930</v>
       </c>
       <c r="P10" t="n">
-        <v>2000</v>
+        <v>40</v>
       </c>
       <c r="Q10" t="n">
-        <v>3000</v>
+        <v>1960</v>
       </c>
       <c r="R10" t="n">
-        <v>175</v>
+        <v>10</v>
       </c>
       <c r="S10" t="n">
-        <v>4825</v>
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
